--- a/input.xlsx
+++ b/input.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cbackup\IES\microgridtest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cbackup\IES\microgridtest_xuhang\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -696,6 +696,1933 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13097047244094487"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.844259842519685"/>
+          <c:h val="0.71445829687955664"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>input!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>input!$H$2:$H$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="96"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>input!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>蒸汽负荷</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>input!$G$2:$G$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>3623.4076</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3650.4076</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3677.4076</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3704.4076</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3731.4076</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3758.4076</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3785.4076</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3652.4076</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3599.4076</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3566.4076</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3493.4076</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3420.4076</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3447.4076</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3374.4076</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3501.4076</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3528.4076</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3555.4076</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3582.4076</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3589.4076</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3536.4076</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3563.4076</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3490.4076</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3517.4076</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3444.4076</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3471.4076</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3398.4076</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3325.4076</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3352.4076</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3379.4076</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3306.4076</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3333.4076</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3360.4076</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3287.4076</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3214.4076</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3141.4076</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3068.4076</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3195.4076</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3280.502</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3247.2719999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3414.0419999999995</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3580.8119999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3747.5819999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3718.6343999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3877.0659000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4035.4973999999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4193.928899999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4352.3603999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4510.7918999999993</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5196.4369199999983</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5312.9494800000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5429.4620400000003</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5545.9746000000005</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5662.4871600000006</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5778.9997199999998</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5895.5122799999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6012.0248399999991</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6128.5374000000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6245.0499600000003</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6238.4219999999978</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6231.7940399999998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6225.1660799999991</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6218.5381200000002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6211.9101600000004</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6205.2821999999996</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6198.6542400000008</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6192.0262799999991</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6185.3983199999993</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6178.7703599999995</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6172.1423999999997</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5898.4967999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5624.8512000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5351.2055999999993</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4585.8893999999991</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4361.6143500000007</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4137.3392999999996</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3913.0642499999994</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3688.7891999999997</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3464.5141500000004</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3240.2390999999998</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3015.9640499999996</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3138.62</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3243.0491999999995</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2959.7543999999998</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2976.4596000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3053.1648</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3169.87</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3102.5752000000102</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3135.2804000000101</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3167.98560000002</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3200.6908000000299</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3353.3960000000402</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3386.1012000000401</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3318.80640000005</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3451.5116000000598</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3584.2168000000702</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3616.9220000000801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>input!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>热水负荷</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>input!$F$2:$F$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>808.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>810.42399999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>812.44799999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>814.47199999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>796.49599999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>788.52</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>780.54399999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>782.56799999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>774.59199999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>766.61599999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>778.64</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>760.66399999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>752.68799999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>736.56200000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>718.53599999999994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>700.51</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>701.48400000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>698.45799999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>688.43200000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>672.40599999999995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>656.38</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>643.35400000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>634.32799999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>636.30200000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>638.27599999999995</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>625.98</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>607.83000000000004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>609.67999999999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>611.53</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>613.38</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>615.23</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>617.08000000000004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>618.92999999999995</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>620.78</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>622.63</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>624.48</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>626.33000000000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>628.17999999999995</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>634.03</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>638.88</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>655.73</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>666.58</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>687.43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>787.61360000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>794.53279999999995</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>802.89200000000005</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>811.25119999999993</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>827.38639999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>843.52159999999992</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>857.95040000000006</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>832.37919999999997</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>843.84159999999997</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>848.10400000000004</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>852.3664</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>856.62879999999996</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>860.89120000000003</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>864.03520000000003</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>888.97119999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>881.50720000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>885.19679999999994</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>928.88639999999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>996.47519999999986</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1004.0639999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>996.4896</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>988.91519999999991</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>921.21119999999996</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>913.5071999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>910.49039999999991</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>871.47359999999992</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>790.46400000000006</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>769.45439999999996</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>738.25439999999992</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>707.05439999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>705.85439999999994</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>704.65440000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>703.45439999999996</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>702.25439999999992</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>696.55920000000003</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>710.99519999999995</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>684.25439999999992</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>675.5136</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>648.77279999999996</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>722.03200000000004</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>717</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>711.96799999999996</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>706.93600000000004</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>701.904</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>696.87200000000007</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>691.84</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>686.80799999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>681.77600000000007</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>676.74400000000003</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>671.71199999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>666.68000000000006</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>661.64800000000002</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>656.61599999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>input!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>冷负荷</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>input!$E$2:$E$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>1549.28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1551.28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1553.28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1555.28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1557.28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1559.28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1561.28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1563.28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1523.28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1497.28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1496.28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1495.28</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1494.28</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1493.28</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1377.28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1379.28</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1381.28</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1383.28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1285.28</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1287.28</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1289.28</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1291.28</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1293.28</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1295.28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1297.28</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1299.28</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1301.28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1303.28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1305.28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1207.28</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1209.28</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1211.28</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1213.28</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1215.28</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1319.0320000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1380.9760000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1442.92</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1408.04</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1473.44</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1438.944</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1604.4480000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1770.048</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1935.6480000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1958.712</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1981.7760000000003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2009.6400000000003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2037.5040000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2091.288</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2145.0720000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2193.1680000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2241.2640000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2279.4720000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2317.6800000000003</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2355.864</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2394.0480000000002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2404.4160000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2414.7840000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2429.904</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2445.0239999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2470.6560000000004</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2496.288</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2521.5840000000007</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2546.8800000000006</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2521.6320000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2496.3840000000005</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2470.7040000000002</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2445.0239999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2374.9680000000003</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2304.9119999999998</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2234.8800000000006</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2164.848</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2128.944</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2093.0400000000004</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2065.2720000000004</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2037.5040000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1935.6239999999998</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1833.7439999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1731.864</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1629.9840000000002</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1540.848</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1551.712</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1562.576</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1573.4400000000003</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1585.303999999996</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1580</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1574.696000000004</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1569.392000000008</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1564.088000000012</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1558.784000000016</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1553.48000000002</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1548.176000000024</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1542.872000000028</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1537.568000000032</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1532.264000000036</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1526.9600000000401</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1521.6560000000441</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-491531936"/>
+        <c:axId val="-491527040"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-491531936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>时刻</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-491527040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="8"/>
+        <c:tickMarkSkip val="8"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-491527040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>功率</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>/kW</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-491531936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr baseline="0">
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>271462</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -995,14 +2922,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F97"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="13.625" customWidth="1"/>
     <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="9" max="9" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -1042,13 +2971,13 @@
         <v>0.36470000000000002</v>
       </c>
       <c r="E2">
-        <v>749</v>
+        <v>1549.28</v>
       </c>
       <c r="F2">
-        <v>200</v>
+        <v>808.4</v>
       </c>
       <c r="G2">
-        <v>1123.4076</v>
+        <v>3623.4076</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1065,13 +2994,13 @@
         <v>0.36470000000000002</v>
       </c>
       <c r="E3">
-        <v>751</v>
+        <v>1551.28</v>
       </c>
       <c r="F3">
-        <v>202</v>
+        <v>810.42399999999998</v>
       </c>
       <c r="G3">
-        <v>1150.4076</v>
+        <v>3650.4076</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1088,13 +3017,13 @@
         <v>0.36470000000000002</v>
       </c>
       <c r="E4">
-        <v>753</v>
+        <v>1553.28</v>
       </c>
       <c r="F4">
-        <v>204</v>
+        <v>812.44799999999998</v>
       </c>
       <c r="G4">
-        <v>1177.4076</v>
+        <v>3677.4076</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1111,13 +3040,13 @@
         <v>0.36470000000000002</v>
       </c>
       <c r="E5">
-        <v>755</v>
+        <v>1555.28</v>
       </c>
       <c r="F5">
-        <v>206</v>
+        <v>814.47199999999998</v>
       </c>
       <c r="G5">
-        <v>1204.4076</v>
+        <v>3704.4076</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1134,13 +3063,13 @@
         <v>0.36470000000000002</v>
       </c>
       <c r="E6">
-        <v>757</v>
+        <v>1557.28</v>
       </c>
       <c r="F6">
-        <v>208</v>
+        <v>796.49599999999998</v>
       </c>
       <c r="G6">
-        <v>1231.4076</v>
+        <v>3731.4076</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1157,13 +3086,13 @@
         <v>0.36470000000000002</v>
       </c>
       <c r="E7">
-        <v>759</v>
+        <v>1559.28</v>
       </c>
       <c r="F7">
-        <v>210</v>
+        <v>788.52</v>
       </c>
       <c r="G7">
-        <v>1258.4076</v>
+        <v>3758.4076</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1180,13 +3109,13 @@
         <v>0.36470000000000002</v>
       </c>
       <c r="E8">
-        <v>761</v>
+        <v>1561.28</v>
       </c>
       <c r="F8">
-        <v>212</v>
+        <v>780.54399999999998</v>
       </c>
       <c r="G8">
-        <v>1285.4076</v>
+        <v>3785.4076</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1203,13 +3132,13 @@
         <v>0.36470000000000002</v>
       </c>
       <c r="E9">
-        <v>763</v>
+        <v>1563.28</v>
       </c>
       <c r="F9">
-        <v>214</v>
+        <v>782.56799999999998</v>
       </c>
       <c r="G9">
-        <v>1312.4076</v>
+        <v>3652.4076</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1226,13 +3155,13 @@
         <v>0.36470000000000002</v>
       </c>
       <c r="E10">
-        <v>765</v>
+        <v>1523.28</v>
       </c>
       <c r="F10">
-        <v>216</v>
+        <v>774.59199999999998</v>
       </c>
       <c r="G10">
-        <v>1339.4076</v>
+        <v>3599.4076</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1249,13 +3178,13 @@
         <v>0.36470000000000002</v>
       </c>
       <c r="E11">
-        <v>767</v>
+        <v>1497.28</v>
       </c>
       <c r="F11">
-        <v>218</v>
+        <v>766.61599999999999</v>
       </c>
       <c r="G11">
-        <v>1366.4076</v>
+        <v>3566.4076</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1272,13 +3201,13 @@
         <v>0.36470000000000002</v>
       </c>
       <c r="E12">
-        <v>769</v>
+        <v>1496.28</v>
       </c>
       <c r="F12">
-        <v>220</v>
+        <v>778.64</v>
       </c>
       <c r="G12">
-        <v>1393.4076</v>
+        <v>3493.4076</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1295,13 +3224,13 @@
         <v>0.36470000000000002</v>
       </c>
       <c r="E13">
-        <v>771</v>
+        <v>1495.28</v>
       </c>
       <c r="F13">
-        <v>222</v>
+        <v>760.66399999999999</v>
       </c>
       <c r="G13">
-        <v>1420.4076</v>
+        <v>3420.4076</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1318,13 +3247,13 @@
         <v>0.36470000000000002</v>
       </c>
       <c r="E14">
-        <v>773</v>
+        <v>1494.28</v>
       </c>
       <c r="F14">
-        <v>224</v>
+        <v>752.68799999999999</v>
       </c>
       <c r="G14">
-        <v>1447.4076</v>
+        <v>3447.4076</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1341,13 +3270,13 @@
         <v>0.36470000000000002</v>
       </c>
       <c r="E15">
-        <v>775</v>
+        <v>1493.28</v>
       </c>
       <c r="F15">
-        <v>226</v>
+        <v>736.56200000000001</v>
       </c>
       <c r="G15">
-        <v>1474.4076</v>
+        <v>3374.4076</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1364,13 +3293,13 @@
         <v>0.36470000000000002</v>
       </c>
       <c r="E16">
-        <v>777</v>
+        <v>1377.28</v>
       </c>
       <c r="F16">
-        <v>228</v>
+        <v>718.53599999999994</v>
       </c>
       <c r="G16">
-        <v>1501.4076</v>
+        <v>3501.4076</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1387,13 +3316,13 @@
         <v>0.36470000000000002</v>
       </c>
       <c r="E17">
-        <v>779</v>
+        <v>1379.28</v>
       </c>
       <c r="F17">
-        <v>230</v>
+        <v>700.51</v>
       </c>
       <c r="G17">
-        <v>1528.4076</v>
+        <v>3528.4076</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1410,13 +3339,13 @@
         <v>0.36470000000000002</v>
       </c>
       <c r="E18">
-        <v>781</v>
+        <v>1381.28</v>
       </c>
       <c r="F18">
-        <v>232</v>
+        <v>701.48400000000004</v>
       </c>
       <c r="G18">
-        <v>1555.4076</v>
+        <v>3555.4076</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1433,13 +3362,13 @@
         <v>0.36470000000000002</v>
       </c>
       <c r="E19">
-        <v>783</v>
+        <v>1383.28</v>
       </c>
       <c r="F19">
-        <v>234</v>
+        <v>698.45799999999997</v>
       </c>
       <c r="G19">
-        <v>1582.4076</v>
+        <v>3582.4076</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1456,13 +3385,13 @@
         <v>0.36470000000000002</v>
       </c>
       <c r="E20">
-        <v>785</v>
+        <v>1285.28</v>
       </c>
       <c r="F20">
-        <v>236</v>
+        <v>688.43200000000002</v>
       </c>
       <c r="G20">
-        <v>1609.4076</v>
+        <v>3589.4076</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1479,13 +3408,13 @@
         <v>0.36470000000000002</v>
       </c>
       <c r="E21">
-        <v>787</v>
+        <v>1287.28</v>
       </c>
       <c r="F21">
-        <v>238</v>
+        <v>672.40599999999995</v>
       </c>
       <c r="G21">
-        <v>1636.4076</v>
+        <v>3536.4076</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1502,13 +3431,13 @@
         <v>0.36470000000000002</v>
       </c>
       <c r="E22">
-        <v>789</v>
+        <v>1289.28</v>
       </c>
       <c r="F22">
-        <v>240</v>
+        <v>656.38</v>
       </c>
       <c r="G22">
-        <v>1663.4076</v>
+        <v>3563.4076</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1525,13 +3454,13 @@
         <v>0.36470000000000002</v>
       </c>
       <c r="E23">
-        <v>791</v>
+        <v>1291.28</v>
       </c>
       <c r="F23">
-        <v>242</v>
+        <v>643.35400000000004</v>
       </c>
       <c r="G23">
-        <v>1690.4076</v>
+        <v>3490.4076</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1548,13 +3477,13 @@
         <v>0.36470000000000002</v>
       </c>
       <c r="E24">
-        <v>793</v>
+        <v>1293.28</v>
       </c>
       <c r="F24">
-        <v>244</v>
+        <v>634.32799999999997</v>
       </c>
       <c r="G24">
-        <v>1717.4076</v>
+        <v>3517.4076</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1571,13 +3500,13 @@
         <v>0.36470000000000002</v>
       </c>
       <c r="E25">
-        <v>795</v>
+        <v>1295.28</v>
       </c>
       <c r="F25">
-        <v>246</v>
+        <v>636.30200000000002</v>
       </c>
       <c r="G25">
-        <v>1744.4076</v>
+        <v>3444.4076</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1594,13 +3523,13 @@
         <v>0.36470000000000002</v>
       </c>
       <c r="E26">
-        <v>797</v>
+        <v>1297.28</v>
       </c>
       <c r="F26">
-        <v>248</v>
+        <v>638.27599999999995</v>
       </c>
       <c r="G26">
-        <v>1771.4076</v>
+        <v>3471.4076</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1617,13 +3546,13 @@
         <v>0.36470000000000002</v>
       </c>
       <c r="E27">
-        <v>799</v>
+        <v>1299.28</v>
       </c>
       <c r="F27">
-        <v>250</v>
+        <v>625.98</v>
       </c>
       <c r="G27">
-        <v>1798.4076</v>
+        <v>3398.4076</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1640,13 +3569,13 @@
         <v>0.36470000000000002</v>
       </c>
       <c r="E28">
-        <v>801</v>
+        <v>1301.28</v>
       </c>
       <c r="F28">
-        <v>252</v>
+        <v>607.83000000000004</v>
       </c>
       <c r="G28">
-        <v>1825.4076</v>
+        <v>3325.4076</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1663,13 +3592,13 @@
         <v>0.36470000000000002</v>
       </c>
       <c r="E29">
-        <v>803</v>
+        <v>1303.28</v>
       </c>
       <c r="F29">
-        <v>254</v>
+        <v>609.67999999999995</v>
       </c>
       <c r="G29">
-        <v>1852.4076</v>
+        <v>3352.4076</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1686,13 +3615,13 @@
         <v>0.36470000000000002</v>
       </c>
       <c r="E30">
-        <v>805</v>
+        <v>1305.28</v>
       </c>
       <c r="F30">
-        <v>256</v>
+        <v>611.53</v>
       </c>
       <c r="G30">
-        <v>1879.4076</v>
+        <v>3379.4076</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1709,13 +3638,13 @@
         <v>0.36470000000000002</v>
       </c>
       <c r="E31">
-        <v>807</v>
+        <v>1207.28</v>
       </c>
       <c r="F31">
-        <v>258</v>
+        <v>613.38</v>
       </c>
       <c r="G31">
-        <v>1906.4076</v>
+        <v>3306.4076</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -1732,13 +3661,13 @@
         <v>0.36470000000000002</v>
       </c>
       <c r="E32">
-        <v>809</v>
+        <v>1209.28</v>
       </c>
       <c r="F32">
-        <v>260</v>
+        <v>615.23</v>
       </c>
       <c r="G32">
-        <v>1933.4076</v>
+        <v>3333.4076</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -1755,13 +3684,13 @@
         <v>0.36470000000000002</v>
       </c>
       <c r="E33">
-        <v>811</v>
+        <v>1211.28</v>
       </c>
       <c r="F33">
-        <v>262</v>
+        <v>617.08000000000004</v>
       </c>
       <c r="G33">
-        <v>1960.4076</v>
+        <v>3360.4076</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -1778,13 +3707,13 @@
         <v>0.75409999999999999</v>
       </c>
       <c r="E34">
-        <v>813</v>
+        <v>1213.28</v>
       </c>
       <c r="F34">
-        <v>264</v>
+        <v>618.92999999999995</v>
       </c>
       <c r="G34">
-        <v>1987.4076</v>
+        <v>3287.4076</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -1801,13 +3730,13 @@
         <v>0.75409999999999999</v>
       </c>
       <c r="E35">
-        <v>815</v>
+        <v>1215.28</v>
       </c>
       <c r="F35">
-        <v>266</v>
+        <v>620.78</v>
       </c>
       <c r="G35">
-        <v>2014.4076</v>
+        <v>3214.4076</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -1824,13 +3753,13 @@
         <v>0.75409999999999999</v>
       </c>
       <c r="E36">
-        <v>1018.7520000000001</v>
+        <v>1319.0320000000002</v>
       </c>
       <c r="F36">
-        <v>568</v>
+        <v>622.63</v>
       </c>
       <c r="G36">
-        <v>2041.4076</v>
+        <v>3141.4076</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -1847,13 +3776,13 @@
         <v>0.75409999999999999</v>
       </c>
       <c r="E37">
-        <v>1080.6960000000001</v>
+        <v>1380.9760000000001</v>
       </c>
       <c r="F37">
-        <v>570</v>
+        <v>624.48</v>
       </c>
       <c r="G37">
-        <v>2068.4076</v>
+        <v>3068.4076</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -1870,13 +3799,13 @@
         <v>0.75409999999999999</v>
       </c>
       <c r="E38">
-        <v>1142.6400000000001</v>
+        <v>1442.92</v>
       </c>
       <c r="F38">
-        <v>572</v>
+        <v>626.33000000000004</v>
       </c>
       <c r="G38">
-        <v>2095.4076</v>
+        <v>3195.4076</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -1893,13 +3822,13 @@
         <v>0.75409999999999999</v>
       </c>
       <c r="E39">
-        <v>1208.0400000000002</v>
+        <v>1408.04</v>
       </c>
       <c r="F39">
-        <v>574</v>
+        <v>628.17999999999995</v>
       </c>
       <c r="G39">
-        <v>3080.5019999999995</v>
+        <v>3280.502</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -1916,10 +3845,10 @@
         <v>0.75409999999999999</v>
       </c>
       <c r="E40">
-        <v>1273.4400000000003</v>
+        <v>1473.44</v>
       </c>
       <c r="F40">
-        <v>576</v>
+        <v>634.03</v>
       </c>
       <c r="G40">
         <v>3247.2719999999999</v>
@@ -1942,7 +3871,7 @@
         <v>1438.944</v>
       </c>
       <c r="F41">
-        <v>578</v>
+        <v>638.88</v>
       </c>
       <c r="G41">
         <v>3414.0419999999995</v>
@@ -1965,7 +3894,7 @@
         <v>1604.4480000000001</v>
       </c>
       <c r="F42">
-        <v>580</v>
+        <v>655.73</v>
       </c>
       <c r="G42">
         <v>3580.8119999999999</v>
@@ -1988,7 +3917,7 @@
         <v>1770.048</v>
       </c>
       <c r="F43">
-        <v>582</v>
+        <v>666.58</v>
       </c>
       <c r="G43">
         <v>3747.5819999999999</v>
@@ -2011,10 +3940,10 @@
         <v>1935.6480000000001</v>
       </c>
       <c r="F44">
-        <v>584</v>
+        <v>687.43</v>
       </c>
       <c r="G44">
-        <v>3914.3519999999999</v>
+        <v>3718.6343999999999</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -2034,10 +3963,10 @@
         <v>1958.712</v>
       </c>
       <c r="F45">
-        <v>587.61360000000002</v>
+        <v>787.61360000000002</v>
       </c>
       <c r="G45">
-        <v>4081.1220000000003</v>
+        <v>3877.0659000000001</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -2057,10 +3986,10 @@
         <v>1981.7760000000003</v>
       </c>
       <c r="F46">
-        <v>594.53279999999995</v>
+        <v>794.53279999999995</v>
       </c>
       <c r="G46">
-        <v>4247.8919999999998</v>
+        <v>4035.4973999999997</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -2080,10 +4009,10 @@
         <v>2009.6400000000003</v>
       </c>
       <c r="F47">
-        <v>602.89200000000005</v>
+        <v>802.89200000000005</v>
       </c>
       <c r="G47">
-        <v>4414.6619999999994</v>
+        <v>4193.928899999999</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -2103,10 +4032,10 @@
         <v>2037.5040000000001</v>
       </c>
       <c r="F48">
-        <v>611.25119999999993</v>
+        <v>811.25119999999993</v>
       </c>
       <c r="G48">
-        <v>4581.4319999999998</v>
+        <v>4352.3603999999996</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -2126,10 +4055,10 @@
         <v>2091.288</v>
       </c>
       <c r="F49">
-        <v>627.38639999999998</v>
+        <v>827.38639999999998</v>
       </c>
       <c r="G49">
-        <v>4748.2019999999993</v>
+        <v>4510.7918999999993</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -2149,10 +4078,10 @@
         <v>2145.0720000000001</v>
       </c>
       <c r="F50">
-        <v>643.52159999999992</v>
+        <v>843.52159999999992</v>
       </c>
       <c r="G50">
-        <v>5469.9335999999985</v>
+        <v>5196.4369199999983</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -2172,10 +4101,10 @@
         <v>2193.1680000000001</v>
       </c>
       <c r="F51">
-        <v>657.95040000000006</v>
+        <v>857.95040000000006</v>
       </c>
       <c r="G51">
-        <v>5592.5784000000003</v>
+        <v>5312.9494800000002</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -2195,10 +4124,10 @@
         <v>2241.2640000000001</v>
       </c>
       <c r="F52">
-        <v>732.37919999999997</v>
+        <v>832.37919999999997</v>
       </c>
       <c r="G52">
-        <v>5715.2232000000004</v>
+        <v>5429.4620400000003</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -2218,10 +4147,10 @@
         <v>2279.4720000000002</v>
       </c>
       <c r="F53">
-        <v>743.84160000000008</v>
+        <v>843.84159999999997</v>
       </c>
       <c r="G53">
-        <v>5837.8680000000004</v>
+        <v>5545.9746000000005</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -2241,10 +4170,10 @@
         <v>2317.6800000000003</v>
       </c>
       <c r="F54">
-        <v>748.10399999999993</v>
+        <v>848.10400000000004</v>
       </c>
       <c r="G54">
-        <v>5960.5128000000004</v>
+        <v>5662.4871600000006</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -2264,10 +4193,10 @@
         <v>2355.864</v>
       </c>
       <c r="F55">
-        <v>752.3664</v>
+        <v>852.3664</v>
       </c>
       <c r="G55">
-        <v>6083.1576000000005</v>
+        <v>5778.9997199999998</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -2287,10 +4216,10 @@
         <v>2394.0480000000002</v>
       </c>
       <c r="F56">
-        <v>756.62879999999996</v>
+        <v>856.62879999999996</v>
       </c>
       <c r="G56">
-        <v>6205.8024000000005</v>
+        <v>5895.5122799999999</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -2310,10 +4239,10 @@
         <v>2404.4160000000002</v>
       </c>
       <c r="F57">
-        <v>760.89120000000003</v>
+        <v>860.89120000000003</v>
       </c>
       <c r="G57">
-        <v>6328.4471999999996</v>
+        <v>6012.0248399999991</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -2333,10 +4262,10 @@
         <v>2414.7840000000001</v>
       </c>
       <c r="F58">
-        <v>764.03520000000003</v>
+        <v>864.03520000000003</v>
       </c>
       <c r="G58">
-        <v>6451.0920000000006</v>
+        <v>6128.5374000000002</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -2356,10 +4285,10 @@
         <v>2429.904</v>
       </c>
       <c r="F59">
-        <v>788.97119999999995</v>
+        <v>888.97119999999995</v>
       </c>
       <c r="G59">
-        <v>6573.7368000000006</v>
+        <v>6245.0499600000003</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -2379,10 +4308,10 @@
         <v>2445.0239999999999</v>
       </c>
       <c r="F60">
-        <v>841.5071999999999</v>
+        <v>881.50720000000001</v>
       </c>
       <c r="G60">
-        <v>6566.7599999999984</v>
+        <v>6238.4219999999978</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -2405,7 +4334,7 @@
         <v>885.19679999999994</v>
       </c>
       <c r="G61">
-        <v>6559.7831999999999</v>
+        <v>6231.7940399999998</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -2428,7 +4357,7 @@
         <v>928.88639999999998</v>
       </c>
       <c r="G62">
-        <v>6552.8063999999995</v>
+        <v>6225.1660799999991</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -2451,7 +4380,7 @@
         <v>996.47519999999986</v>
       </c>
       <c r="G63">
-        <v>6545.8296000000009</v>
+        <v>6218.5381200000002</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -2474,7 +4403,7 @@
         <v>1004.0639999999999</v>
       </c>
       <c r="G64">
-        <v>6538.8528000000006</v>
+        <v>6211.9101600000004</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -2497,7 +4426,7 @@
         <v>996.4896</v>
       </c>
       <c r="G65">
-        <v>6531.8760000000002</v>
+        <v>6205.2821999999996</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -2520,7 +4449,7 @@
         <v>988.91519999999991</v>
       </c>
       <c r="G66">
-        <v>6524.8992000000007</v>
+        <v>6198.6542400000008</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -2543,7 +4472,7 @@
         <v>921.21119999999996</v>
       </c>
       <c r="G67">
-        <v>6517.9223999999995</v>
+        <v>6192.0262799999991</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -2566,7 +4495,7 @@
         <v>913.5071999999999</v>
       </c>
       <c r="G68">
-        <v>6510.9456</v>
+        <v>6185.3983199999993</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -2589,7 +4518,7 @@
         <v>910.49039999999991</v>
       </c>
       <c r="G69">
-        <v>6503.9687999999996</v>
+        <v>6178.7703599999995</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -2612,7 +4541,7 @@
         <v>871.47359999999992</v>
       </c>
       <c r="G70">
-        <v>6496.9920000000002</v>
+        <v>6172.1423999999997</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -2635,7 +4564,7 @@
         <v>790.46400000000006</v>
       </c>
       <c r="G71">
-        <v>6208.9440000000004</v>
+        <v>5898.4967999999999</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -2658,7 +4587,7 @@
         <v>769.45439999999996</v>
       </c>
       <c r="G72">
-        <v>5920.8960000000006</v>
+        <v>5624.8512000000001</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -2681,7 +4610,7 @@
         <v>738.25439999999992</v>
       </c>
       <c r="G73">
-        <v>5632.848</v>
+        <v>5351.2055999999993</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -2704,7 +4633,7 @@
         <v>707.05439999999999</v>
       </c>
       <c r="G74">
-        <v>4827.2519999999995</v>
+        <v>4585.8893999999991</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -2727,7 +4656,7 @@
         <v>705.85439999999994</v>
       </c>
       <c r="G75">
-        <v>4591.1730000000007</v>
+        <v>4361.6143500000007</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -2750,7 +4679,7 @@
         <v>704.65440000000001</v>
       </c>
       <c r="G76">
-        <v>4355.0940000000001</v>
+        <v>4137.3392999999996</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -2773,7 +4702,7 @@
         <v>703.45439999999996</v>
       </c>
       <c r="G77">
-        <v>4119.0149999999994</v>
+        <v>3913.0642499999994</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -2796,7 +4725,7 @@
         <v>702.25439999999992</v>
       </c>
       <c r="G78">
-        <v>3882.9359999999997</v>
+        <v>3688.7891999999997</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -2819,7 +4748,7 @@
         <v>696.55920000000003</v>
       </c>
       <c r="G79">
-        <v>3646.8570000000004</v>
+        <v>3464.5141500000004</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -2842,7 +4771,7 @@
         <v>710.99519999999995</v>
       </c>
       <c r="G80">
-        <v>3410.7779999999998</v>
+        <v>3240.2390999999998</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -2865,7 +4794,7 @@
         <v>684.25439999999992</v>
       </c>
       <c r="G81">
-        <v>3174.6989999999996</v>
+        <v>3015.9640499999996</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -2882,13 +4811,13 @@
         <v>1.1901999999999999</v>
       </c>
       <c r="E82">
-        <v>1451.712</v>
+        <v>1551.712</v>
       </c>
       <c r="F82">
         <v>675.5136</v>
       </c>
       <c r="G82">
-        <v>2938.6200000000003</v>
+        <v>3138.62</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -2905,13 +4834,13 @@
         <v>1.1901999999999999</v>
       </c>
       <c r="E83">
-        <v>1362.576</v>
+        <v>1562.576</v>
       </c>
       <c r="F83">
         <v>648.77279999999996</v>
       </c>
       <c r="G83">
-        <v>2702.5409999999997</v>
+        <v>3243.0491999999995</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
@@ -2928,13 +4857,13 @@
         <v>1.1901999999999999</v>
       </c>
       <c r="E84">
-        <v>1273.4400000000003</v>
+        <v>1573.4400000000003</v>
       </c>
       <c r="F84">
-        <v>222.03200000000001</v>
+        <v>722.03200000000004</v>
       </c>
       <c r="G84">
-        <v>2466.462</v>
+        <v>2959.7543999999998</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -2951,13 +4880,13 @@
         <v>1.1901999999999999</v>
       </c>
       <c r="E85">
-        <v>785.30399999999599</v>
+        <v>1585.303999999996</v>
       </c>
       <c r="F85">
-        <v>217</v>
+        <v>717</v>
       </c>
       <c r="G85">
-        <v>2230.3829999999998</v>
+        <v>2976.4596000000001</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
@@ -2974,13 +4903,13 @@
         <v>1.1901999999999999</v>
       </c>
       <c r="E86">
-        <v>780</v>
+        <v>1580</v>
       </c>
       <c r="F86">
-        <v>211.96799999999999</v>
+        <v>711.96799999999996</v>
       </c>
       <c r="G86">
-        <v>1994.3040000000001</v>
+        <v>3053.1648</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -2997,13 +4926,13 @@
         <v>1.1901999999999999</v>
       </c>
       <c r="E87">
-        <v>774.69600000000401</v>
+        <v>1574.696000000004</v>
       </c>
       <c r="F87">
-        <v>206.93600000000001</v>
+        <v>706.93600000000004</v>
       </c>
       <c r="G87">
-        <v>1758.2249999999999</v>
+        <v>3169.87</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -3020,13 +4949,13 @@
         <v>1.1901999999999999</v>
       </c>
       <c r="E88">
-        <v>769.39200000000801</v>
+        <v>1569.392000000008</v>
       </c>
       <c r="F88">
-        <v>201.904</v>
+        <v>701.904</v>
       </c>
       <c r="G88">
-        <v>1702.1460000000061</v>
+        <v>3102.5752000000102</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -3043,13 +4972,13 @@
         <v>1.1901999999999999</v>
       </c>
       <c r="E89">
-        <v>764.08800000001202</v>
+        <v>1564.088000000012</v>
       </c>
       <c r="F89">
-        <v>196.87200000000001</v>
+        <v>696.87200000000007</v>
       </c>
       <c r="G89">
-        <v>1646.0670000000118</v>
+        <v>3135.2804000000101</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -3066,13 +4995,13 @@
         <v>0.75409999999999999</v>
       </c>
       <c r="E90">
-        <v>758.78400000001602</v>
+        <v>1558.784000000016</v>
       </c>
       <c r="F90">
-        <v>191.84</v>
+        <v>691.84</v>
       </c>
       <c r="G90">
-        <v>1589.988000000018</v>
+        <v>3167.98560000002</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -3089,13 +5018,13 @@
         <v>0.75409999999999999</v>
       </c>
       <c r="E91">
-        <v>753.48000000002003</v>
+        <v>1553.48000000002</v>
       </c>
       <c r="F91">
-        <v>186.80799999999999</v>
+        <v>686.80799999999999</v>
       </c>
       <c r="G91">
-        <v>1533.909000000024</v>
+        <v>3200.6908000000299</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
@@ -3112,13 +5041,13 @@
         <v>0.75409999999999999</v>
       </c>
       <c r="E92">
-        <v>748.17600000002403</v>
+        <v>1548.176000000024</v>
       </c>
       <c r="F92">
-        <v>181.77600000000001</v>
+        <v>681.77600000000007</v>
       </c>
       <c r="G92">
-        <v>1477.8300000000299</v>
+        <v>3353.3960000000402</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -3135,13 +5064,13 @@
         <v>0.75409999999999999</v>
       </c>
       <c r="E93">
-        <v>742.87200000002804</v>
+        <v>1542.872000000028</v>
       </c>
       <c r="F93">
-        <v>176.744</v>
+        <v>676.74400000000003</v>
       </c>
       <c r="G93">
-        <v>1421.7510000000361</v>
+        <v>3386.1012000000401</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -3158,13 +5087,13 @@
         <v>0.75409999999999999</v>
       </c>
       <c r="E94">
-        <v>737.56800000003204</v>
+        <v>1537.568000000032</v>
       </c>
       <c r="F94">
-        <v>171.71199999999999</v>
+        <v>671.71199999999999</v>
       </c>
       <c r="G94">
-        <v>1365.6720000000419</v>
+        <v>3318.80640000005</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -3181,13 +5110,13 @@
         <v>0.75409999999999999</v>
       </c>
       <c r="E95">
-        <v>732.26400000003605</v>
+        <v>1532.264000000036</v>
       </c>
       <c r="F95">
-        <v>166.68</v>
+        <v>666.68000000000006</v>
       </c>
       <c r="G95">
-        <v>1309.593000000051</v>
+        <v>3451.5116000000598</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
@@ -3204,13 +5133,13 @@
         <v>0.75409999999999999</v>
       </c>
       <c r="E96">
-        <v>726.96000000004005</v>
+        <v>1526.9600000000401</v>
       </c>
       <c r="F96">
-        <v>161.648</v>
+        <v>661.64800000000002</v>
       </c>
       <c r="G96">
-        <v>1253.514000000057</v>
+        <v>3584.2168000000702</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
@@ -3227,18 +5156,19 @@
         <v>0.75409999999999999</v>
       </c>
       <c r="E97">
-        <v>721.65600000004395</v>
+        <v>1521.6560000000441</v>
       </c>
       <c r="F97">
-        <v>156.61600000000001</v>
+        <v>656.61599999999999</v>
       </c>
       <c r="G97">
-        <v>1197.4350000000632</v>
+        <v>3616.9220000000801</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>